--- a/test_物件管理/已完成/test_契約管理_随時対応_操作鍵類の再発行・追加貸与.xlsx
+++ b/test_物件管理/已完成/test_契約管理_随時対応_操作鍵類の再発行・追加貸与.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650" tabRatio="850" firstSheet="2" activeTab="13"/>
+    <workbookView windowWidth="27150" windowHeight="13650" tabRatio="850"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="20" r:id="rId1"/>
@@ -4278,23 +4278,8 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4315,9 +4300,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4335,8 +4328,63 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4351,41 +4399,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4396,25 +4413,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4519,19 +4519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4549,7 +4543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4561,25 +4555,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4597,13 +4597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4615,19 +4609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4651,13 +4639,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4675,13 +4675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4734,11 +4734,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4759,16 +4765,43 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4790,44 +4823,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4837,10 +4837,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4849,16 +4849,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4867,17 +4867,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4886,97 +4886,97 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5010,7 +5010,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5466,8 +5466,8 @@
   <sheetPr/>
   <dimension ref="A2:IE364"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="N109" sqref="N109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -53839,7 +53839,7 @@
   <sheetPr/>
   <dimension ref="B4:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
